--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_4_sawtooth_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_4_sawtooth_05_.xlsx
@@ -571,53 +571,55 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.86000000000013</v>
+        <v>22.90000000000014</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>3.924749256700721e-07</v>
+        <v>8.132058471055359e-09</v>
       </c>
       <c r="H2" t="n">
-        <v>2.779257483765722e-06</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>1.055865523118668e-07</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.772537837676282e-13</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>5.587413246244575</v>
+        <v>5.833314818029338</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.1464356321977736, 8.028390860291376]</t>
+          <t>[3.6218009721600897, 8.044828663898587]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>8.800368750394583e-06</v>
+        <v>3.344744516908804e-07</v>
       </c>
       <c r="N2" t="n">
-        <v>8.800368750394583e-06</v>
+        <v>3.344744516908804e-07</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.308210754648002</v>
+        <v>-1.408842351159387</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.8239476867688484, -0.792473822527155]</t>
+          <t>[-1.8365266363327724, -0.9811580659860013]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>8.978785321911431e-07</v>
+        <v>2.604640947367898e-10</v>
       </c>
       <c r="R2" t="n">
-        <v>1.795757064382286e-06</v>
+        <v>5.209281894735796e-10</v>
       </c>
       <c r="S2" t="n">
-        <v>11.33498703641488</v>
+        <v>11.39446199346395</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[9.928696588347528, 12.741277484482225]</t>
+          <t>[10.09099914434941, 12.697924842578495]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +629,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>4.759639639639666</v>
+        <v>5.134734734734767</v>
       </c>
       <c r="X2" t="n">
-        <v>2.883243243243259</v>
+        <v>3.575975975975997</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.636036036036073</v>
+        <v>6.693493493493537</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +654,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.39000000000022</v>
+        <v>23.41000000000022</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>3.092146605432333e-08</v>
+        <v>5.597826313596954e-09</v>
       </c>
       <c r="H3" t="n">
-        <v>9.532706745186591e-07</v>
+        <v>1.055865523118668e-07</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>5.373521369447634</v>
+        <v>6.030334212603734</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[3.2872817680085813, 7.459760970886688]</t>
+          <t>[3.7423579429682565, 8.31831048223921]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>5.961143196842045e-07</v>
+        <v>3.29720012182122e-07</v>
       </c>
       <c r="N3" t="n">
-        <v>1.192228639368409e-06</v>
+        <v>3.344744516908804e-07</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1446579199851161</v>
+        <v>0.1823947686768852</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.3207632138800385, 0.6100790538502707]</t>
+          <t>[-0.25786846606042246, 0.6226580034141929]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.5416708066586167</v>
+        <v>0.4160221521485334</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5416708066586167</v>
+        <v>0.4160221521485334</v>
       </c>
       <c r="S3" t="n">
-        <v>11.16448180308054</v>
+        <v>11.71051953952427</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[9.918037609506037, 12.410925996655052]</t>
+          <t>[10.379081356043187, 13.04195772300536]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>22.8514914914917</v>
+        <v>22.73043043043064</v>
       </c>
       <c r="X3" t="n">
-        <v>21.11889889889909</v>
+        <v>21.09009009009029</v>
       </c>
       <c r="Y3" t="n">
-        <v>24.58408408408431</v>
+        <v>24.370770770771</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_4_sawtooth_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_4_sawtooth_05_.xlsx
@@ -571,55 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.90000000000014</v>
+        <v>22.85000000000013</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>8.132058471055359e-09</v>
+        <v>1.217252524110535e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>1.055865523118668e-07</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3.772537837676282e-13</v>
-      </c>
+        <v>8.654035948268968e-06</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>5.833314818029338</v>
+        <v>5.184810320262848</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.6218009721600897, 8.044828663898587]</t>
+          <t>[3.033336246144147, 7.336284394381549]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3.344744516908804e-07</v>
+        <v>2.9580947684682e-06</v>
       </c>
       <c r="N2" t="n">
-        <v>3.344744516908804e-07</v>
+        <v>5.9161895369364e-06</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.408842351159387</v>
+        <v>-1.559789745926464</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.8365266363327724, -0.9811580659860013]</t>
+          <t>[-2.0629477284833877, -1.0566317633695403]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>2.604640947367898e-10</v>
+        <v>2.466743920237491e-09</v>
       </c>
       <c r="R2" t="n">
-        <v>5.209281894735796e-10</v>
+        <v>4.933487840474982e-09</v>
       </c>
       <c r="S2" t="n">
-        <v>11.39446199346395</v>
+        <v>11.75888098751963</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[10.09099914434941, 12.697924842578495]</t>
+          <t>[10.398414463599963, 13.119347511439301]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -629,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>5.134734734734767</v>
+        <v>5.672472472472506</v>
       </c>
       <c r="X2" t="n">
-        <v>3.575975975975997</v>
+        <v>3.842642642642667</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.693493493493537</v>
+        <v>7.502302302302346</v>
       </c>
     </row>
     <row r="3">
@@ -654,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.41000000000022</v>
+        <v>23.47000000000023</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>5.597826313596954e-09</v>
+        <v>1.191123514265868e-07</v>
       </c>
       <c r="H3" t="n">
-        <v>1.055865523118668e-07</v>
+        <v>3.54556766168912e-06</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>6.030334212603734</v>
+        <v>5.044000398738479</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[3.7423579429682565, 8.31831048223921]</t>
+          <t>[2.7664855310050047, 7.321515266471954]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>3.29720012182122e-07</v>
+        <v>1.65315695890289e-05</v>
       </c>
       <c r="N3" t="n">
-        <v>3.344744516908804e-07</v>
+        <v>1.65315695890289e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1823947686768852</v>
+        <v>0.4339737599553475</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.25786846606042246, 0.6226580034141929]</t>
+          <t>[-0.044026323473730145, 0.9119738433844251]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.4160221521485334</v>
+        <v>0.07506452330202773</v>
       </c>
       <c r="R3" t="n">
-        <v>0.4160221521485334</v>
+        <v>0.07506452330202773</v>
       </c>
       <c r="S3" t="n">
-        <v>11.71051953952427</v>
+        <v>11.05113443952206</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[10.379081356043187, 13.04195772300536]</t>
+          <t>[9.830861684386992, 12.271407194657126]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>22.73043043043064</v>
+        <v>21.84894894894916</v>
       </c>
       <c r="X3" t="n">
-        <v>21.09009009009029</v>
+        <v>20.06344344344364</v>
       </c>
       <c r="Y3" t="n">
-        <v>24.370770770771</v>
+        <v>23.63445445445468</v>
       </c>
     </row>
   </sheetData>
